--- a/RelayTable/RelayTable.xlsx
+++ b/RelayTable/RelayTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikocong/RelayTable/RelayTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RelayTable\RelayTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34B2208-3B7A-CF4C-93F0-D0C9FF7B376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7773A458-FFDE-47D4-BD17-3C600FBF6DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1940" windowWidth="23040" windowHeight="13660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>PYTHONPATH</t>
   </si>
@@ -76,71 +76,119 @@
     <t>Show Console</t>
   </si>
   <si>
-    <t>adfv</t>
+    <t xml:space="preserve">Symbol </t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>DRAIN</t>
+  </si>
+  <si>
+    <t>ROVP</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>R_DRAIN_B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sefsin</t>
+    <t>R_ROVP_B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>jsoineo</t>
+    <t>R_CS_B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ieiien</t>
+    <t>TONMAX</t>
+  </si>
+  <si>
+    <t>FOVI_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>inien</t>
+    <t>R_DRAIN_A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>inins</t>
+    <t>FOVI_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>innv</t>
+    <t>FOVI_4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>einis</t>
+    <t>FOVI_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ien</t>
+    <t>TOFFMAX</t>
+  </si>
+  <si>
+    <t>TONMIN</t>
+  </si>
+  <si>
+    <t>EN_L</t>
+  </si>
+  <si>
+    <t>IQ1</t>
+  </si>
+  <si>
+    <t>R_ROVP_A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>;;me</t>
+    <t>VREF</t>
+  </si>
+  <si>
+    <t>Rdson</t>
+  </si>
+  <si>
+    <t>VOVP1</t>
+  </si>
+  <si>
+    <t>KVI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>xcve</t>
+    <t>VOVP2</t>
+  </si>
+  <si>
+    <t>VOVP3</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>ILED2</t>
+  </si>
+  <si>
+    <t>CL_A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>jinoinves</t>
+    <t>R_CS_A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lsjneifnos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m;m;c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eamfemp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>IQ2</t>
+  </si>
+  <si>
+    <t>ILK_VIN</t>
+  </si>
+  <si>
+    <t>BV_DRAIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,16 +211,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,11 +259,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -192,9 +299,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -532,69 +655,512 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.9140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -609,14 +1175,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -624,32 +1190,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -657,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -665,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -673,27 +1239,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>

--- a/RelayTable/RelayTable.xlsx
+++ b/RelayTable/RelayTable.xlsx
@@ -3,35 +3,49 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2270" yWindow="130" windowWidth="14540" windowHeight="9070" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -45,12 +59,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -78,12 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -451,68 +483,38 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Symbol </t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>VIN</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>DRAIN</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ROVP</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>CS</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>R_DRAIN_B</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>R_ROVP_B</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>R_CS_B</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Relay</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Relay.1</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Relay</t>
         </is>
       </c>
     </row>
@@ -542,36 +544,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>,K0,K1,K2,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>,K0,K1,K2,K3,K4,K5,K6,K7</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>K0,K1,K2,K3,K4,K5,K6,K7,K8</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -599,36 +571,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>,K0,K1,K2,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>,K0,K1,K2,K3,K4,K5,K6,K7</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>K0,K1,K2,K3,K4,K5,K6,K7,K8</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,36 +598,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>,K0,K1,K2,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>,K0,K1,K2,K3,K4,K5,K6,K7</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>K0,K1,K2,K3,K4,K5,K6,K7,K8</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -713,36 +625,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>,K0,K1,K2,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>,K0,K1,K2,K3,K4,K5,K6,K7</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>K0,K1,K2,K3,K4,K5,K6,K7,K8</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -770,36 +652,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>,K0,K7,K8,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>,K0,K8,K9,K3,K4,K5,K6,K10</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>K0,K9,K10,K3,K4,K5,K6,K11,K12</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -827,36 +679,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>,K0,K1,K8,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>,K0,K1,K9,K3,K4,K5,K6,K11</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>K0,K1,K10,K3,K4,K5,K6,K13,K14</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -884,36 +706,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>,K0,K7,K8,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>,K0,K8,K9,K3,K4,K5,K6,K10</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>K0,K9,K10,K3,K4,K5,K6,K11,K12</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -941,36 +733,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>,K9,K1,K8,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>,K12,K1,K9,K3,K4,K5,K6,K13</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>K15,K1,K10,K3,K4,K5,K6,K16,K17</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -998,36 +760,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>,K9,K1,K8,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>,K12,K1,K9,K3,K4,K5,K6,K13</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>K15,K1,K10,K3,K4,K5,K6,K16,K17</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1055,36 +787,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>,K9,K1,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>,K12,K1,K3,K4,K5,K6,K14</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>K15,K1,K3,K4,K5,K6,K18,K19</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1112,36 +814,6 @@
           <t>R_CS_A</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>,K0,K10,K8,K11,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>,K0,K15,K9,K16,K4,K5,K6,K17</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>K0,K20,K10,K21,K4,K5,K6,K22,K23</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1169,36 +841,6 @@
           <t>FOVI_4</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>,K9,K7,K8,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>,K12,K8,K9,K3,K4,K5,K6,K18</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>K15,K9,K10,K3,K4,K5,K6,K24,K25</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1226,36 +868,6 @@
           <t>Float</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>,K0,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>,K0,K4,K5,K6,K19</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>K0,K4,K5,K6,K26,K27</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1281,36 +893,6 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>FOVI_2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>FOVI_3</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>,K0,K7,K8,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>,K0,K8,K9,K3,K4,K5,K6,K10</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>K0,K9,K10,K3,K4,K5,K6,K11,K12</t>
         </is>
       </c>
     </row>
@@ -1325,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,17 +916,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Net_A</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Net_B</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Relay</t>
         </is>
@@ -1421,7 +1003,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R_DRAIN_B</t>
+          <t>DRAIN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1438,12 +1020,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R_ROVP_B</t>
+          <t>ROVP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FOVI_3</t>
+          <t>R_ROVP_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1455,12 +1037,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R_CS_B</t>
+          <t>VIN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FOVI_4</t>
+          <t>KVI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1472,12 +1054,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Relay</t>
+          <t>DRAIN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>,K0,K1,K2,K3,K4,K5,K6</t>
+          <t>CL_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1489,340 +1071,516 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Relay.1</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>,K0,K1,K2,K3,K4,K5,K6,K7</t>
+          <t>R_CS_A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>K8</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symbol </t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>VIN</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>DRAIN</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>ROVP</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Relay</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TONMAX</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FOVI_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FOVI_3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>K0,K1,K2,K3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TOFFMAX</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FOVI_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FOVI_3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>K0,K1,K2,K3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TONMIN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FOVI_1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FOVI_3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>K0,K1,K2,K3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EN_L</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FOVI_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FOVI_3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>K0,K1,K2,K3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IQ1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FOVI_1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FOVI_2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>R_ROVP_A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>K0,K4,K5,K3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VREF</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FOVI_1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>R_ROVP_A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>K0,K1,K5,K3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rdson</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FOVI_1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FOVI_2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>R_ROVP_A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>K0,K4,K5,K3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>VOVP1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>KVI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>R_ROVP_A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>K6,K1,K5,K3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VOVP2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>KVI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>R_ROVP_A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>K6,K1,K5,K3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DRAIN</t>
+          <t>VOVP3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FOVI_2</t>
+          <t>KVI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>K9</t>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>K6,K1,K3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ROVP</t>
+          <t>ILED2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R_ROVP_A</t>
+          <t>FOVI_1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>K10</t>
+          <t>CL_A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>R_ROVP_A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>R_CS_A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>K0,K7,K5,K8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Relay</t>
+          <t>IQ2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>,K0,K7,K8,K3,K4,K5,K6</t>
+          <t>KVI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>K11</t>
+          <t>FOVI_2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>R_ROVP_A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>K6,K4,K5,K3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Relay.1</t>
+          <t>ILK_VIN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>,K0,K8,K9,K3,K4,K5,K6,K10</t>
+          <t>FOVI_1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>K12</t>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>K0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Relay</t>
+          <t>BV_DRAIN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>,K0,K1,K8,K3,K4,K5,K6</t>
+          <t>FOVI_1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>K13</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Relay.1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>,K0,K1,K9,K3,K4,K5,K6,K11</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>K14</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>VIN</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>KVI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>K15</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Relay</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>,K9,K1,K8,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>K16</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Relay.1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>,K12,K1,K9,K3,K4,K5,K6,K13</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>K17</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Relay</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>,K9,K1,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>K18</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Relay.1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>,K12,K1,K3,K4,K5,K6,K14</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>K19</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>DRAIN</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CL_A</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>K20</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>R_CS_A</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>K21</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Relay</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>,K0,K10,K8,K11,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>K22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Relay.1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>,K0,K15,K9,K16,K4,K5,K6,K17</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>K23</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Relay</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>,K9,K7,K8,K3,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>K24</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Relay.1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>,K12,K8,K9,K3,K4,K5,K6,K18</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>K25</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Relay</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>,K0,K4,K5,K6</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>K26</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Relay.1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>,K0,K4,K5,K6,K19</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>K27</t>
+          <t>FOVI_2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>R_ROVP_A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FOVI_4</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>K0,K4,K5,K3</t>
         </is>
       </c>
     </row>

--- a/RelayTable/RelayTable.xlsx
+++ b/RelayTable/RelayTable.xlsx
@@ -107,8 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -483,38 +486,54 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col width="11.453125" customWidth="1" min="3" max="3"/>
+    <col width="11.08984375" customWidth="1" min="4" max="4"/>
+    <col width="9.81640625" customWidth="1" min="6" max="6"/>
+    <col width="9.54296875" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Symbol </t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>VIN</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DRAIN</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>DRAIN_F</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>DRAIN_S</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>ROVP</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CS</t>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CS_F</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>CS_S</t>
         </is>
       </c>
     </row>
@@ -536,12 +555,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FOVI_3</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -563,12 +592,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FOVI_3</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -590,12 +629,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FOVI_3</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -617,12 +666,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>FOVI_3</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -639,17 +698,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FOVI_2</t>
+          <t>FOVI_2_F</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -671,12 +740,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -693,17 +772,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FOVI_2</t>
+          <t>FOVI_2_F</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -725,12 +814,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -752,12 +851,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -779,12 +888,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Float</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -806,10 +925,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>CL_A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>R_CS_A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>R_CS_A</t>
         </is>
@@ -828,17 +957,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FOVI_2</t>
+          <t>FOVI_2_F</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -868,6 +1007,16 @@
           <t>Float</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -882,17 +1031,101 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FOVI_2</t>
+          <t>FOVI_2_F</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Kelvin</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>GND</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>GND</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>OS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FOVI_1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FOVI_2_S</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FOVI_3</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
         </is>
       </c>
     </row>
@@ -907,7 +1140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,17 +1149,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Net_A</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Net_B</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Relay</t>
         </is>
@@ -952,7 +1185,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DRAIN</t>
+          <t>DRAIN_F</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -969,12 +1202,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ROVP</t>
+          <t>DRAIN_S</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FOVI_3</t>
+          <t>R_DRAIN_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -986,12 +1219,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>ROVP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FOVI_4</t>
+          <t>FOVI_3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1003,12 +1236,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DRAIN</t>
+          <t>CS_F</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FOVI_2</t>
+          <t>FOVI_4_F</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1020,12 +1253,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ROVP</t>
+          <t>CS_S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R_ROVP_A</t>
+          <t>FOVI_4_S</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1037,12 +1270,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VIN</t>
+          <t>DRAIN_F</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KVI</t>
+          <t>FOVI_2_F</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1054,12 +1287,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DRAIN</t>
+          <t>DRAIN_S</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CL_A</t>
+          <t>FOVI_2_F</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1071,17 +1304,153 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>ROVP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>R_ROVP_A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>K8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VIN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KVI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>K9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DRAIN_F</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CL_A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>K10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DRAIN_S</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CL_A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>K11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS_F</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>R_CS_A</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>K8</t>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS_S</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>R_CS_A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>K13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DRAIN_S</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>K14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS_S</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GND</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>K15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DRAIN_S</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FOVI_2_S</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>K16</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,32 +1474,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Symbol </t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>VIN</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>DRAIN</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>DRAIN_F</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>DRAIN_S</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ROVP</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>CS_F</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>CS_S</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Relay</t>
         </is>
@@ -1154,17 +1533,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FOVI_3</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>K0,K1,K2,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>K0,K1,K2,K3,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1575,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FOVI_3</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>K0,K1,K2,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>K0,K1,K2,K3,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1218,17 +1617,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FOVI_3</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>K0,K1,K2,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>K0,K1,K2,K3,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1250,17 +1659,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>FOVI_3</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>K0,K1,K2,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>K0,K1,K2,K3,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1277,22 +1696,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FOVI_2</t>
+          <t>FOVI_2_F</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>K0,K4,K5,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>K0,K6,K7,K8,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1314,17 +1743,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>K0,K1,K5,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>K0,K1,K2,K8,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1341,22 +1780,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FOVI_2</t>
+          <t>FOVI_2_F</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>K0,K4,K5,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>K0,K6,K7,K8,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1378,17 +1827,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>K6,K1,K5,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>K9,K1,K2,K8,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1869,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>K6,K1,K5,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>K9,K1,K2,K8,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1442,17 +1911,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Float</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>K6,K1,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>K9,K1,K2,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1474,17 +1953,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>CL_A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>R_CS_A</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>K0,K7,K5,K8</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>R_CS_A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>K0,K10,K11,K8,K12,K13</t>
         </is>
       </c>
     </row>
@@ -1501,22 +1990,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FOVI_2</t>
+          <t>FOVI_2_F</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>K6,K4,K5,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>K9,K6,K7,K8,K4,K5</t>
         </is>
       </c>
     </row>
@@ -1548,6 +2047,16 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>K0</t>
         </is>
       </c>
@@ -1565,22 +2074,116 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FOVI_2</t>
+          <t>FOVI_2_F</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>R_ROVP_A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>FOVI_4</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>K0,K4,K5,K3</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>K0,K6,K7,K8,K4,K5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Kelvin</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GND</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>GND</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>K6,K14,K4,K15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>OS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FOVI_1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FOVI_2_S</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FOVI_3</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FOVI_4_S</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>K0,K6,K16,K3,K4,K5</t>
         </is>
       </c>
     </row>

--- a/RelayTable/RelayTable.xlsx
+++ b/RelayTable/RelayTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikocong/RelayTable/RelayTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7465E5B-D03F-2948-A6B8-845565E64CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C05241A-DEE2-C240-A9B0-75D6E89AE00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="460" windowWidth="14540" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -755,39 +755,39 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -801,16 +801,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -824,16 +824,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -882,7 +882,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -893,163 +893,163 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
+      <c r="D16" t="s">
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>33</v>
+      <c r="G16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/RelayTable/RelayTable.xlsx
+++ b/RelayTable/RelayTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikocong/RelayTable/RelayTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C05241A-DEE2-C240-A9B0-75D6E89AE00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E23149D-4974-E845-96E7-D271D029B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="460" windowWidth="14540" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7460" yWindow="1600" windowWidth="14600" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -322,6 +322,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -626,20 +630,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -663,30 +667,30 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -708,8 +712,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>14</v>
+      <c r="A4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -731,8 +735,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>15</v>
+      <c r="A5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -755,25 +759,25 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/RelayTable/RelayTable.xlsx
+++ b/RelayTable/RelayTable.xlsx
@@ -1261,317 +1261,491 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Net_A</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Net_B</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Relay</t>
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Relays</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>controlA</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>controlB</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VIN</t>
+          <t>K0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>K0I</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>FOVI_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>K0</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cbit0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DRAIN_F</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R_DRAIN_A</t>
+          <t>VIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>K1</t>
+          <t>KVI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>K0I</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cbit1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DRAIN_S</t>
+          <t>K2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R_DRAIN_A</t>
+          <t>K2I</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>K2</t>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>cbit2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ROVP</t>
+          <t>K3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FOVI_3</t>
+          <t>K3I</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>K3</t>
+          <t>CL_A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FOVI_2_F</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>cbit3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CS_F</t>
+          <t>K4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FOVI_4_F</t>
+          <t>DRAIN_F</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>K4</t>
+          <t>K3I</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>K2I</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>cbit4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CS_S</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FOVI_4_S</t>
+          <t>K5I</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>R_DRAIN_A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cbit2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DRAIN_F</t>
+          <t>K6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>K6I</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CL_A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>FOVI_2_F</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>K6</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>cbit3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DRAIN_S</t>
+          <t>K7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FOVI_2_F</t>
+          <t>K7I</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>K7</t>
+          <t>FOVI_2_S</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GND</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>cbit5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ROVP</t>
+          <t>K8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R_ROVP_A</t>
+          <t>K8I</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>K8</t>
+          <t>K6I</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>K5I</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>cbit6</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VIN</t>
+          <t>K9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KVI</t>
+          <t>DRAIN_S</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>K9</t>
+          <t>K7I</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>K8I</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cbit7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DRAIN_F</t>
+          <t>K10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CL_A</t>
+          <t>K10I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>K10</t>
+          <t>FOVI_3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>cbit8</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DRAIN_S</t>
+          <t>K11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CL_A</t>
+          <t>ROVP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>K11</t>
+          <t>R_ROVP_A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>K10I</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>cbit9</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CS_F</t>
+          <t>K12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R_CS_A</t>
+          <t>K12I</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>K12</t>
+          <t>FOVI_4_F</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>cbit10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CS_S</t>
+          <t>K13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>CS_F</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>R_CS_A</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>K13</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DRAIN_S</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GND</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>K14</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CS_S</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>GND</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>K15</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DRAIN_S</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>FOVI_2_S</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>K16</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>K12I</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>cbit3</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>VCC</t>
         </is>
       </c>
     </row>

--- a/RelayTable/RelayTable.xlsx
+++ b/RelayTable/RelayTable.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>K0,K2,K5,K10,K12</t>
+          <t>C0,C2,C8,C10</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>K0,K2,K5,K10,K12</t>
+          <t>C0,C2,C8,C10</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>K0,K2,K5,K10,K12</t>
+          <t>C0,C2,C8,C10</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>K0,K2,K5,K10,K12</t>
+          <t>C0,C2,C8,C10</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>K0,K4,K8,K11,K12</t>
+          <t>C0,C4,C6,C9,C10</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>K0,K2,K5,K11,K12</t>
+          <t>C0,C2,C9,C10</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>K0,K4,K8,K11,K12</t>
+          <t>C0,C4,C6,C9,C10</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>K1,K2,K5,K11,K12</t>
+          <t>C1,C2,C9,C10</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>K1,K2,K5,K11,K12</t>
+          <t>C1,C2,C9,C10</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>K1,K2,K5,K12</t>
+          <t>C1,C2,C10</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>K0,K3,K4,K6,K8,K11,K13</t>
+          <t>C0,C3,C4,C6,C9</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>K1,K4,K8,K11,K12</t>
+          <t>C1,C4,C6,C9,C10</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>K0</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>K0,K4,K8,K11,K12</t>
+          <t>C0,C4,C6,C9,C10</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>K4,K9,K12</t>
+          <t>C4,C7,C10</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>K0,K4,K7,K9,K10,K12</t>
+          <t>C0,C4,C5,C7,C8,C10</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>cbit0</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>cbit1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>cbit2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>cbit3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cbit4</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>cbit2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cbit3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cbit5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cbit6</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cbit7</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cbit8</t>
+          <t>C8</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cbit9</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cbit10</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cbit3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
